--- a/biology/Botanique/Sansevieria_pearsonii/Sansevieria_pearsonii.xlsx
+++ b/biology/Botanique/Sansevieria_pearsonii/Sansevieria_pearsonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria pearsonii, également appelée Dracaena pearsonii[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria pearsonii, également appelée Dracaena pearsonii, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria pearsonii est une espèce de sansevières à feuilles pratiquement cylindriques, longues (de 60 à 150 cm avec un diamètre 1 à 5 cm), cannelées, de couleur brun-rouge à la base du pied et s'éclaircissant sur le vert en allant vers l'apex avec des striures vertes plus claires[2]. 
-Elle a été identifiée comme espèce à part entière en 1911 par le botaniste britannique Nicholas Edward Brown[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria pearsonii est une espèce de sansevières à feuilles pratiquement cylindriques, longues (de 60 à 150 cm avec un diamètre 1 à 5 cm), cannelées, de couleur brun-rouge à la base du pied et s'éclaircissant sur le vert en allant vers l'apex avec des striures vertes plus claires. 
+Elle a été identifiée comme espèce à part entière en 1911 par le botaniste britannique Nicholas Edward Brown.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire de l'ensemble de l'Afrique australe (d'est en ouest) jusqu'au sud de la Tanzanie[4],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire de l'ensemble de l'Afrique australe (d'est en ouest) jusqu'au sud de la Tanzanie,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente des synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente des synonymes :
 Sansevieria deserti (N.E. Brown, 1915)
 Sansevieria rhodesiana (N.E. Brown, 1915)
 Dracaena pearsonii (N.E Brown, 1911 ; Byng &amp; Christenh. 2018)</t>
